--- a/Data/Input/Route Tracker-Input.xlsx
+++ b/Data/Input/Route Tracker-Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_capstone_5\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559212D5-3A01-40D7-9450-7A7837677A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D08C9C5-029A-4183-AAF7-E622561C1FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7E52CB5C-B483-4043-9A63-8A600E7364F7}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,6 +721,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1F744C9B594704FB632A9D8996A6EB1" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e1c7aed62f5b1bdacec2e9b40956c7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4edf56a-5a91-48ff-919c-183254b0e511" xmlns:ns3="6a1fcef9-8c1c-4c75-859d-d52abd477b99" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a7bfa1f7866ee5f1ca9ba3bf69ef6ee" ns2:_="" ns3:_="">
     <xsd:import namespace="b4edf56a-5a91-48ff-919c-183254b0e511"/>
@@ -1007,15 +1016,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1032,6 +1032,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B4F16ED-35BE-4CA7-A0E3-7157B8EA912C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5FD95EB-B919-471D-A0F2-E1D833BD11DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1050,14 +1058,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B4F16ED-35BE-4CA7-A0E3-7157B8EA912C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83802A-3FB8-46C7-A352-04D323F684A2}">
   <ds:schemaRefs>

--- a/Data/Input/Route Tracker-Input.xlsx
+++ b/Data/Input/Route Tracker-Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Rencita_capstone_5\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D08C9C5-029A-4183-AAF7-E622561C1FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B227F-F691-4DDA-9AE8-9C727DF0E7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7E52CB5C-B483-4043-9A63-8A600E7364F7}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,12 +721,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4edf56a-5a91-48ff-919c-183254b0e511">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6a1fcef9-8c1c-4c75-859d-d52abd477b99" xsi:nil="true"/>
+    <Email xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
+    <IDName xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
+    <Discription xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
+    <Identityname xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1017,24 +1023,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4edf56a-5a91-48ff-919c-183254b0e511">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6a1fcef9-8c1c-4c75-859d-d52abd477b99" xsi:nil="true"/>
-    <Email xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
-    <IDName xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
-    <Discription xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
-    <Identityname xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B4F16ED-35BE-4CA7-A0E3-7157B8EA912C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83802A-3FB8-46C7-A352-04D323F684A2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b4edf56a-5a91-48ff-919c-183254b0e511"/>
+    <ds:schemaRef ds:uri="6a1fcef9-8c1c-4c75-859d-d52abd477b99"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1059,12 +1062,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83802A-3FB8-46C7-A352-04D323F684A2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B4F16ED-35BE-4CA7-A0E3-7157B8EA912C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b4edf56a-5a91-48ff-919c-183254b0e511"/>
-    <ds:schemaRef ds:uri="6a1fcef9-8c1c-4c75-859d-d52abd477b99"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>